--- a/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-1,11</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,1</t>
+          <t>-9,11; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,8</t>
+          <t>-5,46; 2,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,0</t>
+          <t>-6,69; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,0</t>
+          <t>-8,5; 1,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,66</t>
+          <t>-5,36; 0,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,93</t>
+          <t>-5,48; 1,24</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>134,44%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>-17,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-46,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-65,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>-67,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>-46,91%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 585,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-0,67</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,0</t>
+          <t>-2,23; 10,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,91</t>
+          <t>-4,42; 5,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 3,53</t>
+          <t>-7,28; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,65</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,86</t>
+          <t>-3,32; 3,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,24</t>
+          <t>-3,96; 1,93</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>134,44%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16,09%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-17,04%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-46,73%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-65,41%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-67,25%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-46,91%</t>
+          <t>-33,98%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 585,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,49</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 3,67</t>
+          <t>-9,24; 3,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 0,0</t>
+          <t>-12,07; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,15; -1,08</t>
+          <t>-18,05; 1,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,45; -2,36</t>
+          <t>-17,67; -0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 0,6</t>
+          <t>-9,19; 1,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,62; -1,32</t>
+          <t>-11,21; -0,34</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>-24,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,22 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,46%</t>
+          <t>-63,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-78,98%</t>
+          <t>-79,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,5%</t>
+          <t>-55,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-81,44%</t>
+          <t>-83,26%</t>
         </is>
       </c>
     </row>
@@ -725,29 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,6; 25,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -5,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-87,43; 33,55</t>
+          <t>-91,95; 135,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 5,34</t>
+          <t>-100,0; 129,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,95</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,0</t>
+          <t>-5,76; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,91</t>
+          <t>-5,41; 2,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 3,53</t>
+          <t>-12,07; 1,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,65</t>
+          <t>-12,2; 1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,86</t>
+          <t>-6,59; 0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 1,24</t>
+          <t>-6,0; 1,47</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-38,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-46,73%</t>
+          <t>-63,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-65,41%</t>
+          <t>-65,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-67,25%</t>
+          <t>-57,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,91%</t>
+          <t>-51,49%</t>
         </is>
       </c>
     </row>
@@ -886,24 +886,24 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 137,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 108,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 152,72</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,93</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 10,1</t>
+          <t>0,0; 10,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,8</t>
+          <t>0,0; 10,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 0,0</t>
+          <t>-18,82; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,0</t>
+          <t>-18,82; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 3,66</t>
+          <t>-7,41; 1,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,93</t>
+          <t>-6,4; 2,41</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>134,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,45%</t>
+          <t>-63,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,98%</t>
+          <t>-36,6%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 585,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 2,8</t>
+          <t>-4,57; 12,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,79</t>
+          <t>-11,65; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; -1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,28</t>
+          <t>-2,84; 4,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,32; -0,46</t>
+          <t>-7,51; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-67,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-80,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-44,64%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-65,17%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-77,32; 420,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,33 +1193,197 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-90,2; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-95,53; -26,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-76,16; 19,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-87,83; -7,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 2,5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 1,85</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; -0,49</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -1,64</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 0,44</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; -0,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-67,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-80,02%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-44,64%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-65,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-81,09; 487,29</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 498,96</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-91,3; 9,36</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-98,25; -36,34</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-76,51; 31,48</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-88,56; -6,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 3,47</t>
+          <t>-9,23; 3,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 0,0</t>
+          <t>-13,88; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 1,49</t>
+          <t>-15,39; 1,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,67; -0,0</t>
+          <t>-18,94; 0,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 1,58</t>
+          <t>-9,5; 1,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -0,34</t>
+          <t>-10,96; -0,61</t>
         </is>
       </c>
     </row>
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,95; 135,23</t>
+          <t>-91,81; 97,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,15</t>
+          <t>-100,0; 223,81</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,73</t>
+          <t>-6,44; 1,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 2,85</t>
+          <t>-4,31; 2,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,29</t>
+          <t>-11,33; 2,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 1,02</t>
+          <t>-11,45; 1,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 0,72</t>
+          <t>-6,03; 0,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 1,47</t>
+          <t>-5,96; 1,35</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 137,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 108,74</t>
+          <t>-93,37; 119,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 152,72</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,58</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>0,0; 11,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 0,0</t>
+          <t>-19,17; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 0,0</t>
+          <t>-19,17; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 1,63</t>
+          <t>-7,02; 0,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,41</t>
+          <t>-5,84; 2,42</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 12,46</t>
+          <t>-4,18; 11,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 0,0</t>
+          <t>-10,21; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 4,79</t>
+          <t>-2,87; 4,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 0,0</t>
+          <t>-7,33; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,5</t>
+          <t>-2,48; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,85</t>
+          <t>-3,25; 1,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -0,49</t>
+          <t>-7,51; -0,46</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,64</t>
+          <t>-7,91; -1,55</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,44</t>
+          <t>-3,95; 0,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,39</t>
+          <t>-4,4; -0,67</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-81,09; 487,29</t>
+          <t>-76,02; 528,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 498,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-91,3; 9,36</t>
+          <t>-91,74; -0,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-98,25; -36,34</t>
+          <t>-96,02; -25,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,51; 31,48</t>
+          <t>-78,17; 22,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,56; -6,03</t>
+          <t>-88,71; -15,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP16A10-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-6,04</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-7,58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-2,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-7,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,49</t>
+          <t>-16,14; 1,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 0,0</t>
+          <t>-18,16; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 1,98</t>
+          <t>-7,4; 3,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 0,37</t>
+          <t>-11,54; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 1,4</t>
+          <t>-10,02; 1,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -0,61</t>
+          <t>-11,08; -0,9</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-63,36%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-79,46%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-24,89%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-63,36%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-79,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 75,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-91,81; 97,67</t>
+          <t>-93,47; 74,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 223,81</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-4,15</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,55</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,15</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 1,71</t>
+          <t>-11,18; 1,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,88</t>
+          <t>-11,42; 1,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 2,03</t>
+          <t>-4,8; 1,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,12</t>
+          <t>-4,28; 2,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 0,8</t>
+          <t>-6,03; 1,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 1,35</t>
+          <t>-6,34; 1,2</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-63,02%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-65,87%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-38,61%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-1,68%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-63,02%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-65,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 120,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-93,37; 119,59</t>
+          <t>-100,0; 114,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 113,32</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,01</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>3,27</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,53</t>
+          <t>-17,66; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,94</t>
+          <t>-17,66; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 0,0</t>
+          <t>0,0; 10,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 0,0</t>
+          <t>0,0; 11,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 0,95</t>
+          <t>-7,56; 0,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 2,42</t>
+          <t>-6,05; 2,41</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,53</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-3,32</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 11,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 12,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,68; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,97</t>
+          <t>-2,85; 4,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,0</t>
+          <t>-6,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>76,27%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-3,66</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,34</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,26</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-4,34</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 2,71</t>
+          <t>-7,41; -0,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,43</t>
+          <t>-8,43; -1,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -0,46</t>
+          <t>-2,52; 2,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,91; -1,55</t>
+          <t>-3,25; 1,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,22</t>
+          <t>-3,68; 0,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; -0,67</t>
+          <t>-4,32; -0,46</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-67,5%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-80,02%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>13,61%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-26,32%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-67,5%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-80,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-76,02; 528,15</t>
+          <t>-90,2; 0,29</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,53; -26,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-91,74; -0,65</t>
+          <t>-77,32; 420,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-96,02; -25,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-78,17; 22,86</t>
+          <t>-76,16; 19,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-88,71; -15,87</t>
+          <t>-87,83; -7,41</t>
         </is>
       </c>
     </row>
